--- a/SVD_Files/LCD_VK214.xlsx
+++ b/SVD_Files/LCD_VK214.xlsx
@@ -225,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -233,23 +233,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -533,214 +553,237 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="51.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>46</v>
       </c>
     </row>
